--- a/synchro.xlsx
+++ b/synchro.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedove\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PederHans\code\divesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -214,7 +214,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +239,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3F455E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="62">
     <border>
@@ -1123,7 +1129,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1139,183 +1144,184 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1389,6 +1395,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF3F455E"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1399,6 +1408,161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>187778</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC55F78-5E44-45F5-8066-E02C915012DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4272643" y="9416143"/>
+          <a:ext cx="5412921" cy="797531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>115748</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>244929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FADB50-31E1-4EF3-80E6-82CF3EECE279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="653142" y="435428"/>
+          <a:ext cx="1612535" cy="503465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>317230</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>81739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76571068-D6EA-4E73-A856-1F37C8544841}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10681608" y="381000"/>
+          <a:ext cx="657408" cy="734882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1689,10 +1853,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="125" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1707,115 +1871,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="77" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="35"/>
       <c r="B3" s="46"/>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="141"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="88"/>
       <c r="AF3" s="46"/>
       <c r="AG3" s="46"/>
     </row>
     <row r="4" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="45"/>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="141"/>
-      <c r="S4" s="141"/>
-      <c r="T4" s="141"/>
-      <c r="U4" s="141"/>
-      <c r="V4" s="141"/>
-      <c r="W4" s="141"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="75"/>
-      <c r="AE4" s="75"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
       <c r="AF4" s="45"/>
       <c r="AG4" s="45"/>
     </row>
     <row r="5" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="3"/>
     </row>
@@ -1858,27 +2022,27 @@
       <c r="AG6" s="39"/>
     </row>
     <row r="7" spans="1:33" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
+      <c r="A7" s="136"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="127"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="102"/>
       <c r="M7" s="44"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="127"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="102"/>
       <c r="S7"/>
-      <c r="T7" s="125"/>
-      <c r="U7" s="127"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="102"/>
       <c r="X7" s="39" t="s">
         <v>2</v>
       </c>
@@ -1890,40 +2054,40 @@
       <c r="AD7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AE7" s="82"/>
+      <c r="AE7" s="81"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="40"/>
     </row>
     <row r="8" spans="1:33" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="102"/>
+      <c r="A8" s="136"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="130"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="104"/>
       <c r="M8" s="44"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="129"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="129"/>
-      <c r="R8" s="130"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="104"/>
       <c r="S8"/>
-      <c r="T8" s="128"/>
-      <c r="U8" s="130"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="104"/>
       <c r="X8" s="56"/>
       <c r="Y8" s="57"/>
       <c r="Z8" s="57"/>
       <c r="AA8" s="57"/>
       <c r="AB8" s="58"/>
       <c r="AC8"/>
-      <c r="AD8" s="135"/>
-      <c r="AE8" s="136"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="83"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="40"/>
     </row>
@@ -1949,72 +2113,72 @@
       <c r="S9"/>
       <c r="T9" s="59"/>
       <c r="U9" s="59"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="81"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="80"/>
       <c r="AC9"/>
-      <c r="AD9" s="137"/>
-      <c r="AE9" s="138"/>
+      <c r="AD9" s="84"/>
+      <c r="AE9" s="85"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="40"/>
     </row>
     <row r="10" spans="1:33" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="102"/>
+      <c r="A10" s="136"/>
       <c r="B10" s="44"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="127"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="102"/>
       <c r="M10" s="44"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="127"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="102"/>
       <c r="S10"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="127"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="102"/>
       <c r="X10"/>
       <c r="Y10"/>
       <c r="Z10"/>
       <c r="AA10"/>
       <c r="AB10"/>
       <c r="AC10"/>
-      <c r="AD10" s="139"/>
-      <c r="AE10" s="140"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="87"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="40"/>
     </row>
     <row r="11" spans="1:33" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="102"/>
+      <c r="A11" s="136"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="130"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="104"/>
       <c r="M11" s="44"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="129"/>
-      <c r="R11" s="130"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="104"/>
       <c r="S11"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="130"/>
+      <c r="T11" s="103"/>
+      <c r="U11" s="104"/>
       <c r="X11"/>
       <c r="Y11"/>
       <c r="Z11"/>
@@ -2064,33 +2228,33 @@
     <row r="13" spans="1:33" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="106"/>
       <c r="F13" s="5"/>
       <c r="G13" s="37"/>
-      <c r="H13" s="95" t="s">
+      <c r="H13" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="95"/>
-      <c r="J13" s="96"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="106"/>
       <c r="K13" s="37"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="115" t="s">
+      <c r="M13" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="115"/>
-      <c r="R13" s="115"/>
-      <c r="S13" s="115"/>
-      <c r="T13" s="115"/>
-      <c r="U13" s="115"/>
-      <c r="V13" s="115"/>
-      <c r="W13" s="115"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="132"/>
+      <c r="U13" s="132"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
@@ -2107,25 +2271,25 @@
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="97"/>
+      <c r="E14" s="107"/>
       <c r="F14" s="38"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
       <c r="I14" s="37"/>
-      <c r="J14" s="97"/>
+      <c r="J14" s="107"/>
       <c r="K14" s="37"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="115"/>
-      <c r="T14" s="115"/>
-      <c r="U14" s="115"/>
-      <c r="V14" s="115"/>
-      <c r="W14" s="115"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="132"/>
+      <c r="R14" s="132"/>
+      <c r="S14" s="132"/>
+      <c r="T14" s="132"/>
+      <c r="U14" s="132"/>
+      <c r="V14" s="132"/>
+      <c r="W14" s="132"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
@@ -2142,8 +2306,8 @@
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
@@ -2210,70 +2374,70 @@
     <row r="17" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="98" t="s">
+      <c r="D17" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="98" t="s">
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="99"/>
-      <c r="J17" s="98" t="s">
+      <c r="I17" s="91"/>
+      <c r="J17" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="99"/>
-      <c r="L17" s="98" t="s">
+      <c r="K17" s="91"/>
+      <c r="L17" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="99"/>
-      <c r="N17" s="131" t="s">
+      <c r="M17" s="91"/>
+      <c r="N17" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="132"/>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="132"/>
-      <c r="R17" s="131" t="s">
+      <c r="O17" s="109"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="S17" s="132"/>
-      <c r="T17" s="132"/>
-      <c r="U17" s="132"/>
-      <c r="V17" s="133"/>
-      <c r="W17" s="98" t="s">
+      <c r="S17" s="109"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="110"/>
+      <c r="W17" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="98" t="s">
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="91"/>
+      <c r="AA17" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="AB17" s="107"/>
-      <c r="AC17" s="107"/>
-      <c r="AD17" s="107"/>
-      <c r="AE17" s="99"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="90"/>
+      <c r="AD17" s="90"/>
+      <c r="AE17" s="91"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="11"/>
     </row>
     <row r="18" spans="1:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="94"/>
       <c r="N18" s="48" t="s">
         <v>12</v>
       </c>
@@ -2301,47 +2465,47 @@
       <c r="V18" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="W18" s="100"/>
-      <c r="X18" s="108"/>
-      <c r="Y18" s="108"/>
-      <c r="Z18" s="101"/>
-      <c r="AA18" s="100"/>
-      <c r="AB18" s="108"/>
-      <c r="AC18" s="108"/>
-      <c r="AD18" s="108"/>
-      <c r="AE18" s="101"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="94"/>
+      <c r="AA18" s="92"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="94"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="11"/>
     </row>
     <row r="19" spans="1:33" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="83">
+      <c r="C19" s="137">
         <v>1</v>
       </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="91"/>
-      <c r="T19" s="91"/>
-      <c r="U19" s="91"/>
-      <c r="V19" s="105"/>
-      <c r="W19" s="85"/>
-      <c r="X19" s="123"/>
-      <c r="Y19" s="123"/>
-      <c r="Z19" s="86"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="124"/>
+      <c r="S19" s="112"/>
+      <c r="T19" s="112"/>
+      <c r="U19" s="112"/>
+      <c r="V19" s="133"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="96"/>
+      <c r="Y19" s="96"/>
+      <c r="Z19" s="97"/>
       <c r="AA19" s="51"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="28"/>
@@ -2353,30 +2517,30 @@
     <row r="20" spans="1:33" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="92"/>
-      <c r="V20" s="106"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="124"/>
-      <c r="Y20" s="124"/>
-      <c r="Z20" s="88"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="113"/>
+      <c r="T20" s="113"/>
+      <c r="U20" s="113"/>
+      <c r="V20" s="134"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="100"/>
       <c r="AA20" s="52"/>
       <c r="AB20" s="15"/>
       <c r="AC20" s="29"/>
@@ -2388,32 +2552,32 @@
     <row r="21" spans="1:33" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="83">
+      <c r="C21" s="137">
         <v>2</v>
       </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="91"/>
-      <c r="T21" s="91"/>
-      <c r="U21" s="91"/>
-      <c r="V21" s="105"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="123"/>
-      <c r="Y21" s="123"/>
-      <c r="Z21" s="86"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="124"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="112"/>
+      <c r="U21" s="112"/>
+      <c r="V21" s="133"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="96"/>
+      <c r="Y21" s="96"/>
+      <c r="Z21" s="97"/>
       <c r="AA21" s="53"/>
       <c r="AB21" s="18"/>
       <c r="AC21" s="30"/>
@@ -2425,30 +2589,30 @@
     <row r="22" spans="1:33" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="106"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="124"/>
-      <c r="Y22" s="124"/>
-      <c r="Z22" s="88"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="125"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="113"/>
+      <c r="U22" s="113"/>
+      <c r="V22" s="134"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="99"/>
+      <c r="Y22" s="99"/>
+      <c r="Z22" s="100"/>
       <c r="AA22" s="60"/>
       <c r="AB22" s="61"/>
       <c r="AC22" s="62"/>
@@ -2460,32 +2624,32 @@
     <row r="23" spans="1:33" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="83">
+      <c r="C23" s="137">
         <v>3</v>
       </c>
-      <c r="D23" s="89"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="91"/>
-      <c r="T23" s="91"/>
-      <c r="U23" s="91"/>
-      <c r="V23" s="105"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="123"/>
-      <c r="Y23" s="123"/>
-      <c r="Z23" s="86"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="124"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="133"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="96"/>
+      <c r="Y23" s="96"/>
+      <c r="Z23" s="97"/>
       <c r="AA23" s="53"/>
       <c r="AB23" s="18"/>
       <c r="AC23" s="30"/>
@@ -2497,30 +2661,30 @@
     <row r="24" spans="1:33" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="92"/>
-      <c r="T24" s="92"/>
-      <c r="U24" s="92"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="124"/>
-      <c r="Y24" s="124"/>
-      <c r="Z24" s="88"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="113"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="113"/>
+      <c r="U24" s="113"/>
+      <c r="V24" s="134"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="99"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="100"/>
       <c r="AA24" s="60"/>
       <c r="AB24" s="61"/>
       <c r="AC24" s="62"/>
@@ -2532,32 +2696,32 @@
     <row r="25" spans="1:33" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="83">
+      <c r="C25" s="137">
         <v>4</v>
       </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="91"/>
-      <c r="T25" s="91"/>
-      <c r="U25" s="91"/>
-      <c r="V25" s="105"/>
-      <c r="W25" s="85"/>
-      <c r="X25" s="123"/>
-      <c r="Y25" s="123"/>
-      <c r="Z25" s="86"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="124"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="112"/>
+      <c r="U25" s="112"/>
+      <c r="V25" s="133"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="96"/>
+      <c r="Y25" s="96"/>
+      <c r="Z25" s="97"/>
       <c r="AA25" s="54"/>
       <c r="AB25" s="21"/>
       <c r="AC25" s="31"/>
@@ -2569,30 +2733,30 @@
     <row r="26" spans="1:33" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="92"/>
-      <c r="V26" s="106"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="124"/>
-      <c r="Y26" s="124"/>
-      <c r="Z26" s="88"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="113"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="125"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="113"/>
+      <c r="U26" s="113"/>
+      <c r="V26" s="134"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="99"/>
+      <c r="Y26" s="99"/>
+      <c r="Z26" s="100"/>
       <c r="AA26" s="65"/>
       <c r="AB26" s="66"/>
       <c r="AC26" s="67"/>
@@ -2604,32 +2768,32 @@
     <row r="27" spans="1:33" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="83">
+      <c r="C27" s="137">
         <v>5</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="91"/>
-      <c r="T27" s="91"/>
-      <c r="U27" s="91"/>
-      <c r="V27" s="105"/>
-      <c r="W27" s="85"/>
-      <c r="X27" s="123"/>
-      <c r="Y27" s="123"/>
-      <c r="Z27" s="86"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="124"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="124"/>
+      <c r="S27" s="112"/>
+      <c r="T27" s="112"/>
+      <c r="U27" s="112"/>
+      <c r="V27" s="133"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="96"/>
+      <c r="Y27" s="96"/>
+      <c r="Z27" s="97"/>
       <c r="AA27" s="55"/>
       <c r="AB27" s="24"/>
       <c r="AC27" s="32"/>
@@ -2641,30 +2805,30 @@
     <row r="28" spans="1:33" ht="22.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="87"/>
-      <c r="X28" s="124"/>
-      <c r="Y28" s="124"/>
-      <c r="Z28" s="124"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="125"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="113"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="125"/>
+      <c r="S28" s="113"/>
+      <c r="T28" s="113"/>
+      <c r="U28" s="113"/>
+      <c r="V28" s="134"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="99"/>
+      <c r="Y28" s="99"/>
+      <c r="Z28" s="99"/>
       <c r="AA28" s="70"/>
       <c r="AB28" s="71"/>
       <c r="AC28" s="72"/>
@@ -2698,9 +2862,9 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
-      <c r="Y29" s="134"/>
-      <c r="Z29" s="134"/>
-      <c r="AA29" s="134"/>
+      <c r="Y29" s="111"/>
+      <c r="Z29" s="111"/>
+      <c r="AA29" s="111"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
@@ -2781,81 +2945,81 @@
       <c r="Z31" s="47"/>
       <c r="AA31" s="26"/>
       <c r="AB31" s="11"/>
-      <c r="AC31" s="116" t="s">
+      <c r="AC31" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="AD31" s="116"/>
-      <c r="AE31" s="116"/>
+      <c r="AD31" s="135"/>
+      <c r="AE31" s="135"/>
       <c r="AF31" s="27"/>
       <c r="AG31" s="11"/>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="117"/>
-      <c r="P32" s="118"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="118"/>
-      <c r="S32" s="117"/>
-      <c r="T32" s="118"/>
-      <c r="U32" s="119"/>
-      <c r="V32" s="117"/>
-      <c r="W32" s="118"/>
-      <c r="X32" s="118"/>
-      <c r="Y32" s="118"/>
-      <c r="Z32" s="118"/>
-      <c r="AA32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="118"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="117"/>
+      <c r="Q32" s="117"/>
+      <c r="R32" s="117"/>
+      <c r="S32" s="116"/>
+      <c r="T32" s="117"/>
+      <c r="U32" s="118"/>
+      <c r="V32" s="116"/>
+      <c r="W32" s="117"/>
+      <c r="X32" s="117"/>
+      <c r="Y32" s="117"/>
+      <c r="Z32" s="117"/>
+      <c r="AA32" s="118"/>
       <c r="AB32" s="3"/>
-      <c r="AC32" s="109"/>
-      <c r="AD32" s="110"/>
-      <c r="AE32" s="111"/>
+      <c r="AC32" s="126"/>
+      <c r="AD32" s="127"/>
+      <c r="AE32" s="128"/>
       <c r="AF32" s="9"/>
       <c r="AG32" s="3"/>
     </row>
     <row r="33" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="121"/>
-      <c r="K33" s="121"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="121"/>
-      <c r="N33" s="122"/>
-      <c r="O33" s="120"/>
-      <c r="P33" s="121"/>
-      <c r="Q33" s="121"/>
-      <c r="R33" s="121"/>
-      <c r="S33" s="120"/>
-      <c r="T33" s="121"/>
-      <c r="U33" s="122"/>
-      <c r="V33" s="120"/>
-      <c r="W33" s="121"/>
-      <c r="X33" s="121"/>
-      <c r="Y33" s="121"/>
-      <c r="Z33" s="121"/>
-      <c r="AA33" s="122"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="120"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="120"/>
+      <c r="N33" s="121"/>
+      <c r="O33" s="119"/>
+      <c r="P33" s="120"/>
+      <c r="Q33" s="120"/>
+      <c r="R33" s="120"/>
+      <c r="S33" s="119"/>
+      <c r="T33" s="120"/>
+      <c r="U33" s="121"/>
+      <c r="V33" s="119"/>
+      <c r="W33" s="120"/>
+      <c r="X33" s="120"/>
+      <c r="Y33" s="120"/>
+      <c r="Z33" s="120"/>
+      <c r="AA33" s="121"/>
       <c r="AB33" s="3"/>
-      <c r="AC33" s="112"/>
-      <c r="AD33" s="113"/>
-      <c r="AE33" s="114"/>
+      <c r="AC33" s="129"/>
+      <c r="AD33" s="130"/>
+      <c r="AE33" s="131"/>
       <c r="AF33" s="9"/>
       <c r="AG33" s="3"/>
     </row>
@@ -2894,48 +3058,50 @@
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
     </row>
+    <row r="42" spans="1:33" s="141" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:33" s="141" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:33" s="141" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:33" s="141" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:33" s="141" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:33" s="141" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="AD8:AE10"/>
-    <mergeCell ref="C3:W3"/>
-    <mergeCell ref="C4:W4"/>
-    <mergeCell ref="W17:Z18"/>
-    <mergeCell ref="W19:Z20"/>
-    <mergeCell ref="W21:Z22"/>
-    <mergeCell ref="J19:K20"/>
-    <mergeCell ref="J17:K18"/>
-    <mergeCell ref="T7:U8"/>
-    <mergeCell ref="T10:U11"/>
-    <mergeCell ref="W23:Z24"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="N7:R8"/>
-    <mergeCell ref="N10:R11"/>
-    <mergeCell ref="C7:L8"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="C10:L11"/>
-    <mergeCell ref="I32:N33"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="H27:I28"/>
-    <mergeCell ref="C32:H33"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="L25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="H23:I24"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="J25:K26"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="J21:K22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D21:D22"/>
     <mergeCell ref="AC32:AE33"/>
     <mergeCell ref="M13:W14"/>
     <mergeCell ref="R25:R26"/>
@@ -2960,7 +3126,19 @@
     <mergeCell ref="S21:S22"/>
     <mergeCell ref="V25:V26"/>
     <mergeCell ref="W25:Z26"/>
-    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="I32:N33"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="H27:I28"/>
+    <mergeCell ref="C32:H33"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="L25:M26"/>
+    <mergeCell ref="N25:N26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="P25:P26"/>
@@ -2971,8 +3149,22 @@
     <mergeCell ref="O25:O26"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="J23:K24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="W23:Z24"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="D17:G18"/>
     <mergeCell ref="V19:V20"/>
-    <mergeCell ref="O23:O24"/>
     <mergeCell ref="N21:N22"/>
     <mergeCell ref="R21:R22"/>
     <mergeCell ref="R19:R20"/>
@@ -2982,49 +3174,28 @@
     <mergeCell ref="O21:O22"/>
     <mergeCell ref="P21:P22"/>
     <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="AD8:AE10"/>
+    <mergeCell ref="W17:Z18"/>
+    <mergeCell ref="W19:Z20"/>
+    <mergeCell ref="W21:Z22"/>
+    <mergeCell ref="J19:K20"/>
+    <mergeCell ref="J17:K18"/>
+    <mergeCell ref="T7:U8"/>
+    <mergeCell ref="T10:U11"/>
+    <mergeCell ref="N7:R8"/>
+    <mergeCell ref="N10:R11"/>
+    <mergeCell ref="C7:L8"/>
+    <mergeCell ref="C10:L11"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="J25:K26"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="J21:K22"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="C3:AE3"/>
+    <mergeCell ref="C4:AE4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.10999999999999999" bottom="0.10999999999999999" header="0" footer="0.15000000000000002"/>
-  <pageSetup paperSize="9" scale="81" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>